--- a/ESPN sports website/IPL/Delhi Capitals/Kuldeep Yadav.xlsx
+++ b/ESPN sports website/IPL/Delhi Capitals/Kuldeep Yadav.xlsx
@@ -480,10 +480,10 @@
         <v>Kuldeep Yadav</v>
       </c>
       <c r="C3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>0.00</v>
+        <v>100.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I3" t="str">
         <v>Wankhede</v>
       </c>
       <c r="J3" t="str">
-        <v>April 22, 2022</v>
+        <v>May 21, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Royals won by 15 runs</v>
+        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Kuldeep Yadav</v>
       </c>
       <c r="C4" t="str">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D4" t="str">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>100.00</v>
+        <v>29.41</v>
       </c>
       <c r="H4" t="str">
-        <v>Gujarat Titans</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I4" t="str">
-        <v>Pune</v>
+        <v>DY Patil</v>
       </c>
       <c r="J4" t="str">
-        <v>April 02, 2022</v>
+        <v>May 08, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Titans won by 14 runs</v>
+        <v>Super Kings won by 91 runs</v>
       </c>
     </row>
     <row r="5">
@@ -550,31 +550,31 @@
         <v>Kuldeep Yadav</v>
       </c>
       <c r="C5" t="str">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D5" t="str">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E5" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="str">
-        <v>29.41</v>
+        <v>200.00</v>
       </c>
       <c r="H5" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I5" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J5" t="str">
-        <v>May 08, 2022</v>
+        <v>May 01, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Super Kings won by 91 runs</v>
+        <v>Super Giants won by 6 runs</v>
       </c>
     </row>
     <row r="6">
@@ -585,31 +585,31 @@
         <v>Kuldeep Yadav</v>
       </c>
       <c r="C6" t="str">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E6" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="str">
-        <v>200.00</v>
+        <v>0.00</v>
       </c>
       <c r="H6" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I6" t="str">
         <v>Wankhede</v>
       </c>
       <c r="J6" t="str">
-        <v>May 01, 2022</v>
+        <v>April 22, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Super Giants won by 6 runs</v>
+        <v>Royals won by 15 runs</v>
       </c>
     </row>
     <row r="7">
@@ -620,10 +620,10 @@
         <v>Kuldeep Yadav</v>
       </c>
       <c r="C7" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="str">
         <v>0</v>
@@ -635,16 +635,16 @@
         <v>100.00</v>
       </c>
       <c r="H7" t="str">
-        <v>Mumbai Indians</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I7" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J7" t="str">
-        <v>May 21, 2022</v>
+        <v>May 16, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
+        <v>Capitals won by 17 runs</v>
       </c>
     </row>
     <row r="8">
@@ -655,31 +655,31 @@
         <v>Kuldeep Yadav</v>
       </c>
       <c r="C8" t="str">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D8" t="str">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E8" t="str">
         <v>0</v>
       </c>
       <c r="F8" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="str">
         <v>100.00</v>
       </c>
       <c r="H8" t="str">
-        <v>Punjab Kings</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I8" t="str">
-        <v>DY Patil</v>
+        <v>Pune</v>
       </c>
       <c r="J8" t="str">
-        <v>May 16, 2022</v>
+        <v>April 02, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>Capitals won by 17 runs</v>
+        <v>Titans won by 14 runs</v>
       </c>
     </row>
   </sheetData>
